--- a/02 Excel/Tio Cash Master 0100 Formulas.xlsx
+++ b/02 Excel/Tio Cash Master 0100 Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cash_\Desktop\Tio Cash Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9F0BA-EF33-46EF-B656-870DE1CD1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D323BFF3-F4C8-448D-ADE0-C612F18FCBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" tabRatio="771" firstSheet="11" activeTab="12" xr2:uid="{5A620C6D-5217-41AA-B50E-90E3F8C743E2}"/>
+    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" tabRatio="771" firstSheet="2" activeTab="6" xr2:uid="{5A620C6D-5217-41AA-B50E-90E3F8C743E2}"/>
   </bookViews>
   <sheets>
     <sheet name="0100 All 100%" sheetId="1" r:id="rId1"/>
@@ -4796,7 +4796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC69B30-93FC-4D5A-8F55-87CCFA44693A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
@@ -9997,7 +9997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F20C0-B77B-4C3D-8ED3-D6A1CC7D6D5A}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:S26"/>
     </sheetView>
   </sheetViews>
@@ -10417,138 +10417,137 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C21" s="44">
-        <v>-1</v>
+      <c r="C21" s="46">
+        <v>-30</v>
       </c>
       <c r="D21" s="43">
-        <f>C21+(-5)</f>
-        <v>-6</v>
-      </c>
-      <c r="E21" s="44">
-        <f>D21+(-5)</f>
-        <v>-11</v>
+        <f>C21+5</f>
+        <v>-25</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" ref="E21:H25" si="13">D21+5</f>
+        <v>-20</v>
       </c>
       <c r="F21" s="43">
-        <f>E21+(-5)</f>
-        <v>-16</v>
+        <f t="shared" si="13"/>
+        <v>-15</v>
       </c>
       <c r="G21" s="43">
-        <f>F21+(-5)</f>
-        <v>-21</v>
+        <f t="shared" si="13"/>
+        <v>-10</v>
       </c>
       <c r="H21" s="43">
-        <f>G21+(-5)</f>
-        <v>-26</v>
+        <f t="shared" si="13"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C22" s="46">
-        <f>C21+(-1)</f>
-        <v>-2</v>
-      </c>
-      <c r="D22" s="44">
-        <f t="shared" ref="D22:E25" si="13">C22+(-5)</f>
-        <v>-7</v>
-      </c>
-      <c r="E22" s="43">
+      <c r="C22" s="44">
+        <v>-29</v>
+      </c>
+      <c r="D22" s="46">
+        <f t="shared" ref="D22:D25" si="14">C22+5</f>
+        <v>-24</v>
+      </c>
+      <c r="E22" s="44">
+        <f t="shared" si="13"/>
+        <v>-19</v>
+      </c>
+      <c r="F22" s="43">
+        <f t="shared" si="13"/>
+        <v>-14</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="13"/>
+        <v>-9</v>
+      </c>
+      <c r="H22" s="43">
+        <f t="shared" si="13"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C23" s="43">
+        <v>-28</v>
+      </c>
+      <c r="D23" s="44">
+        <f t="shared" si="14"/>
+        <v>-23</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="13"/>
+        <v>-18</v>
+      </c>
+      <c r="F23" s="44">
+        <f t="shared" si="13"/>
+        <v>-13</v>
+      </c>
+      <c r="G23" s="43">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C24" s="43">
+        <v>-27</v>
+      </c>
+      <c r="D24" s="43">
+        <f t="shared" si="14"/>
+        <v>-22</v>
+      </c>
+      <c r="E24" s="44">
+        <f t="shared" si="13"/>
+        <v>-17</v>
+      </c>
+      <c r="F24" s="43">
         <f t="shared" si="13"/>
         <v>-12</v>
       </c>
-      <c r="F22" s="44">
-        <f t="shared" ref="F22:H22" si="14">E22+(-5)</f>
-        <v>-17</v>
-      </c>
-      <c r="G22" s="43">
-        <f t="shared" si="14"/>
-        <v>-22</v>
-      </c>
-      <c r="H22" s="43">
-        <f t="shared" si="14"/>
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C23" s="43">
-        <f t="shared" ref="C23:C25" si="15">C22+(-1)</f>
-        <v>-3</v>
-      </c>
-      <c r="D23" s="43">
+      <c r="G24" s="44">
         <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="E23" s="44">
+        <v>-7</v>
+      </c>
+      <c r="H24" s="43">
         <f t="shared" si="13"/>
-        <v>-13</v>
-      </c>
-      <c r="F23" s="43">
-        <f t="shared" ref="F23:H23" si="16">E23+(-5)</f>
-        <v>-18</v>
-      </c>
-      <c r="G23" s="44">
-        <f t="shared" si="16"/>
-        <v>-23</v>
-      </c>
-      <c r="H23" s="43">
-        <f t="shared" si="16"/>
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C24" s="43">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="D24" s="43">
-        <f t="shared" si="13"/>
-        <v>-9</v>
-      </c>
-      <c r="E24" s="43">
-        <f t="shared" si="13"/>
-        <v>-14</v>
-      </c>
-      <c r="F24" s="44">
-        <f t="shared" ref="F24:H24" si="17">E24+(-5)</f>
-        <v>-19</v>
-      </c>
-      <c r="G24" s="43">
-        <f t="shared" si="17"/>
-        <v>-24</v>
-      </c>
-      <c r="H24" s="44">
-        <f t="shared" si="17"/>
-        <v>-29</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" s="43">
-        <f t="shared" si="15"/>
-        <v>-5</v>
+        <v>-26</v>
       </c>
       <c r="D25" s="43">
-        <f t="shared" si="13"/>
-        <v>-10</v>
+        <f t="shared" si="14"/>
+        <v>-21</v>
       </c>
       <c r="E25" s="43">
         <f t="shared" si="13"/>
-        <v>-15</v>
-      </c>
-      <c r="F25" s="43">
-        <f t="shared" ref="F25:H25" si="18">E25+(-5)</f>
-        <v>-20</v>
+        <v>-16</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="13"/>
+        <v>-11</v>
       </c>
       <c r="G25" s="43">
-        <f t="shared" si="18"/>
-        <v>-25</v>
-      </c>
-      <c r="H25" s="43">
-        <f t="shared" si="18"/>
-        <v>-30</v>
+        <f t="shared" si="13"/>
+        <v>-6</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="13"/>
+        <v>-1</v>
       </c>
       <c r="I25" s="45" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z21:Z25">
+    <sortCondition ref="Z21:Z25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
